--- a/trunk/doc/Requirements.xlsx
+++ b/trunk/doc/Requirements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Liste over siste fangster</t>
   </si>
@@ -33,7 +33,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">fangster order by </t>
+    <t>Som returnerende bruker av draugen.org ønsker jeg oversikt over siste fangster, slik at jeg kan se nærmere på interessante fangster</t>
+  </si>
+  <si>
+    <t>Liste over sesongfangster</t>
+  </si>
+  <si>
+    <t>Som bruker ønsker jeg å se hvilke fangster som er bra i de forskjellige årstidene</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +452,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/doc/Requirements.xlsx
+++ b/trunk/doc/Requirements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="9525" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="9525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>Liste over siste fangster</t>
   </si>
@@ -30,16 +30,184 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Som returnerende bruker av draugen.org ønsker jeg oversikt over siste fangster, slik at jeg kan se nærmere på interessante fangster</t>
-  </si>
-  <si>
     <t>Liste over sesongfangster</t>
   </si>
   <si>
-    <t>Som bruker ønsker jeg å se hvilke fangster som er bra i de forskjellige årstidene</t>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>Ønske</t>
+  </si>
+  <si>
+    <t>Begrunnelse</t>
+  </si>
+  <si>
+    <t>Liste over fangster fra de forskjellige årstidene</t>
+  </si>
+  <si>
+    <t>Fisker</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Returnerende bruker</t>
+  </si>
+  <si>
+    <t>Se hva som skjer</t>
+  </si>
+  <si>
+    <t>Få tips til lokasjonen for dagens fisketur</t>
+  </si>
+  <si>
+    <t>Paging</t>
+  </si>
+  <si>
+    <t>Liste over fangster skal ikke være for lang</t>
+  </si>
+  <si>
+    <t>Laste siden på normal tid, ikke scrolle i evighet</t>
+  </si>
+  <si>
+    <t>Rekoder</t>
+  </si>
+  <si>
+    <t>Liste over rekorder for et team, fisker, sted</t>
+  </si>
+  <si>
+    <t>Konkurranse med andre team, fiskere og seg selv</t>
+  </si>
+  <si>
+    <t>Sorterting</t>
+  </si>
+  <si>
+    <t>Sortere fangstlister på art, fisker, gram, poeng, dato, sted</t>
+  </si>
+  <si>
+    <t>Finne den fangst jeg er interessert i</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>også rekordlister</t>
+  </si>
+  <si>
+    <t>Årsrekorder</t>
+  </si>
+  <si>
+    <t>Filtrer rekorder på fiskeår</t>
+  </si>
+  <si>
+    <t>Se hvem som vant hvert fiskeår</t>
+  </si>
+  <si>
+    <t>Fangstdetaljer</t>
+  </si>
+  <si>
+    <t>Vise detaljer, større bilde og alle kommentarer til en fangst</t>
+  </si>
+  <si>
+    <t>Vil vite mer om fangsten</t>
+  </si>
+  <si>
+    <t>Medlem</t>
+  </si>
+  <si>
+    <t>Kommentere en fangst, art, team eller et sted</t>
+  </si>
+  <si>
+    <t>Kommentarer</t>
+  </si>
+  <si>
+    <t>Si min mening</t>
+  </si>
+  <si>
+    <t>Artsdetaljer</t>
+  </si>
+  <si>
+    <t>Vite mer om arten</t>
+  </si>
+  <si>
+    <t>Stedsdetaljer</t>
+  </si>
+  <si>
+    <t>Vite mer om stedet</t>
+  </si>
+  <si>
+    <t>Fiskerdetaljer</t>
+  </si>
+  <si>
+    <t>Teamdetaljer</t>
+  </si>
+  <si>
+    <t>Vise detaljer, medlemmer, rekorder og kommentarer til et team</t>
+  </si>
+  <si>
+    <t>Vise detaljer, større bilde, fangstliste og alle kommentarer til et sted</t>
+  </si>
+  <si>
+    <t>Vise detaljer, fangstliste, større bilde og alle kommentarer til en art</t>
+  </si>
+  <si>
+    <t>Vise detaljer, større bilde, rekordliste og alle kommentarer til en fisker</t>
+  </si>
+  <si>
+    <t>Se personlige rekorder</t>
+  </si>
+  <si>
+    <t>Se teaminfo og rekorder</t>
+  </si>
+  <si>
+    <t>Sammendraug</t>
+  </si>
+  <si>
+    <t>Summere rekorddata for rekordliste og grupper på fisker eller team eller sted</t>
+  </si>
+  <si>
+    <t>Registere en ny art</t>
+  </si>
+  <si>
+    <t>Den kan legges på en fangst</t>
+  </si>
+  <si>
+    <t>Regsitere nytt sted</t>
+  </si>
+  <si>
+    <t>Registrere ny fisker</t>
+  </si>
+  <si>
+    <t>Ny fisker blir medlem av et team</t>
+  </si>
+  <si>
+    <t>Legge inn nytt team</t>
+  </si>
+  <si>
+    <t>Slik at andre en de som er blitt tatt opp i Draugen kan ha oversikt over sine fangster.</t>
+  </si>
+  <si>
+    <t>Registrere ny fangst</t>
+  </si>
+  <si>
+    <t>Hive seg med i rekordkampen</t>
+  </si>
+  <si>
+    <t>Add/Edit art</t>
+  </si>
+  <si>
+    <t>Add/Edit sted</t>
+  </si>
+  <si>
+    <t>Add/Edit fisker</t>
+  </si>
+  <si>
+    <t>Add/Edit fangst</t>
+  </si>
+  <si>
+    <t>Add/edit team</t>
+  </si>
+  <si>
+    <t>All tekst skal i ressursfiler</t>
   </si>
 </sst>
 </file>
@@ -83,14 +251,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,6 +287,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G19" totalsRowShown="0">
+  <autoFilter ref="A1:G19"/>
+  <sortState ref="A2:G19">
+    <sortCondition descending="1" ref="B1:B19"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Id"/>
+    <tableColumn id="2" name="Importance"/>
+    <tableColumn id="3" name="Title"/>
+    <tableColumn id="4" name="Bruker" dataDxfId="2"/>
+    <tableColumn id="5" name="Ønske" dataDxfId="1"/>
+    <tableColumn id="6" name="Begrunnelse" dataDxfId="0"/>
+    <tableColumn id="7" name="Nb"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,32 +607,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -434,11 +654,20 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -448,26 +677,361 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>